--- a/Cielo.xlsx
+++ b/Cielo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karla\OneDrive - Instituto Politecnico Nacional\Desktop\Materias\Pattern Recognition\Proyecto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4369C7CB-00B2-4A07-A4AC-B06CDF53BA76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA1579A-B1EF-4922-BB0F-CCF3A2E3F81F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7995" xr2:uid="{1C580B64-49D4-436A-A98D-CE34145A9A0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1C580B64-49D4-436A-A98D-CE34145A9A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Suma</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t xml:space="preserve">Total= </t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -485,240 +494,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A44583A-8E73-48DA-9C53-54A49F1CD087}">
-  <dimension ref="A1:P682"/>
+  <dimension ref="A1:P687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H663" workbookViewId="0">
-      <selection activeCell="L684" sqref="L684"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>237</v>
-      </c>
-      <c r="B1">
-        <v>246</v>
-      </c>
-      <c r="C1">
-        <v>188</v>
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="B2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C2">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C3">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B4">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C4">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B5">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C5">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="B6">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C6">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C7">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="B8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C8">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="B9">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C9">
-        <v>189</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B10">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="C10">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B11">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C11">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B12">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C12">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B13">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C13">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B14">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C14">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B15">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C15">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B16">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C16">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B17">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C17">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B18">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C18">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B19">
         <v>254</v>
       </c>
       <c r="C19">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="B20">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B21">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="C21">
         <v>223</v>
@@ -726,10 +735,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B22">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C22">
         <v>223</v>
@@ -737,90 +746,90 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B23">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C23">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B24">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C24">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B25">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C25">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B26">
         <v>227</v>
       </c>
       <c r="C26">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B27">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C27">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B28">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C28">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B29">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C29">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>226</v>
+      </c>
+      <c r="B30">
+        <v>226</v>
+      </c>
+      <c r="C30">
         <v>228</v>
-      </c>
-      <c r="B30">
-        <v>230</v>
-      </c>
-      <c r="C30">
-        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,120 +837,120 @@
         <v>228</v>
       </c>
       <c r="B31">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C31">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B32">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C32">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B33">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C33">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B34">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C34">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B35">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C35">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B36">
         <v>223</v>
       </c>
       <c r="C36">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B37">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C37">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B38">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C38">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B39">
+        <v>226</v>
+      </c>
+      <c r="C39">
         <v>223</v>
-      </c>
-      <c r="C39">
-        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B40">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C40">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B41">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C41">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,29 +958,29 @@
         <v>209</v>
       </c>
       <c r="B42">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43">
         <v>219</v>
       </c>
       <c r="C43">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B44">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C44">
         <v>231</v>
@@ -979,24 +988,24 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45">
         <v>220</v>
       </c>
       <c r="C45">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B46">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C46">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,10 +1013,10 @@
         <v>212</v>
       </c>
       <c r="B47">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C47">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1018,144 +1027,144 @@
         <v>221</v>
       </c>
       <c r="C48">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B49">
         <v>221</v>
       </c>
       <c r="C49">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C50">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B51">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C51">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B52">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C52">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B53">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B54">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C54">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B55">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C55">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C56">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B57">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C57">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B58">
         <v>222</v>
       </c>
       <c r="C58">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B59">
         <v>222</v>
       </c>
       <c r="C59">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B60">
         <v>222</v>
       </c>
       <c r="C60">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B61">
         <v>222</v>
@@ -1166,13 +1175,13 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B62">
         <v>222</v>
       </c>
       <c r="C62">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,21 +1197,21 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B64">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C64">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B65">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C65">
         <v>231</v>
@@ -1210,21 +1219,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B66">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B67">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C67">
         <v>233</v>
@@ -1232,24 +1241,24 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B68">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C68">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B69">
         <v>224</v>
       </c>
       <c r="C69">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,18 +1266,18 @@
         <v>215</v>
       </c>
       <c r="B70">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C70">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B71">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C71">
         <v>231</v>
@@ -1276,13 +1285,13 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B72">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C72">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,43 +1299,43 @@
         <v>216</v>
       </c>
       <c r="B73">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C73">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B74">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C74">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B75">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C75">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B76">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C76">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,10 +1343,10 @@
         <v>210</v>
       </c>
       <c r="B77">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C77">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,76 +1354,76 @@
         <v>210</v>
       </c>
       <c r="B78">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C78">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B79">
         <v>216</v>
       </c>
       <c r="C79">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B80">
         <v>216</v>
       </c>
       <c r="C80">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B81">
         <v>216</v>
       </c>
       <c r="C81">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B82">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C82">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B83">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C83">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B84">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C84">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,73 +1431,73 @@
         <v>202</v>
       </c>
       <c r="B85">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C85">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B86">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C86">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B87">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C87">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B88">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C88">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B89">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C89">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B90">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C90">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B91">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C91">
         <v>224</v>
@@ -1496,21 +1505,21 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B92">
-        <v>2102</v>
+        <v>211</v>
       </c>
       <c r="C92">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B93">
-        <v>212</v>
+        <v>2102</v>
       </c>
       <c r="C93">
         <v>223</v>
@@ -1518,21 +1527,21 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B94">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B95">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C95">
         <v>222</v>
@@ -1540,10 +1549,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B96">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C96">
         <v>222</v>
@@ -1551,21 +1560,21 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B97">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C97">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B98">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C98">
         <v>221</v>
@@ -1573,10 +1582,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B99">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C99">
         <v>221</v>
@@ -1584,65 +1593,65 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B100">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C100">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B101">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C101">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B102">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C102">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B103">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C103">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B104">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C104">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B105">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C105">
         <v>220</v>
@@ -1650,21 +1659,21 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B106">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C106">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B107">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C107">
         <v>221</v>
@@ -1672,10 +1681,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B108">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C108">
         <v>221</v>
@@ -1683,10 +1692,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B109">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C109">
         <v>221</v>
@@ -1694,21 +1703,21 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B110">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C110">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B111">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C111">
         <v>223</v>
@@ -1716,32 +1725,32 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B112">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C112">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B113">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C113">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B114">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C114">
         <v>224</v>
@@ -1749,57 +1758,57 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B115">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C115">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B116">
         <v>206</v>
       </c>
       <c r="C116">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B117">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C117">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B118">
         <v>205</v>
       </c>
       <c r="C118">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B119">
         <v>205</v>
       </c>
       <c r="C119">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1810,15 +1819,15 @@
         <v>205</v>
       </c>
       <c r="C120">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B121">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C121">
         <v>221</v>
@@ -1826,65 +1835,65 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B122">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C122">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B123">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C123">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B124">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C124">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B125">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C125">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B126">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C126">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B127">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C127">
         <v>216</v>
@@ -1892,10 +1901,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B128">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C128">
         <v>216</v>
@@ -1903,10 +1912,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B129">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C129">
         <v>216</v>
@@ -1914,43 +1923,43 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B130">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C130">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B131">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C131">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B132">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C132">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B133">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C133">
         <v>213</v>
@@ -1958,21 +1967,21 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B134">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C134">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B135">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C135">
         <v>212</v>
@@ -1980,46 +1989,46 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B136">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C136">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B137">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C137">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B138">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C138">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B139">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C139">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2027,7 +2036,7 @@
         <v>169</v>
       </c>
       <c r="B140">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C140">
         <v>215</v>
@@ -2046,13 +2055,13 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B142">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C142">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2060,10 +2069,10 @@
         <v>168</v>
       </c>
       <c r="B143">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C143">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2071,7 +2080,7 @@
         <v>168</v>
       </c>
       <c r="B144">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C144">
         <v>211</v>
@@ -2079,21 +2088,21 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B145">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C145">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B146">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C146">
         <v>210</v>
@@ -2101,43 +2110,43 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B147">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C147">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B148">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C148">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B149">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C149">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B150">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C150">
         <v>219</v>
@@ -2145,32 +2154,32 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B151">
         <v>187</v>
       </c>
       <c r="C151">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B152">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C152">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B153">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C153">
         <v>218</v>
@@ -2178,21 +2187,21 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B154">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C154">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C155">
         <v>217</v>
@@ -2200,10 +2209,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C156">
         <v>217</v>
@@ -2211,10 +2220,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C157">
         <v>217</v>
@@ -2222,18 +2231,18 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B158">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C158">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>181</v>
@@ -2244,7 +2253,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B160">
         <v>181</v>
@@ -2255,10 +2264,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C161">
         <v>218</v>
@@ -2277,10 +2286,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B163">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C163">
         <v>218</v>
@@ -2288,10 +2297,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B164">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C164">
         <v>218</v>
@@ -2299,10 +2308,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
+        <v>169</v>
+      </c>
+      <c r="B165">
         <v>180</v>
-      </c>
-      <c r="B165">
-        <v>181</v>
       </c>
       <c r="C165">
         <v>218</v>
@@ -2310,10 +2319,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="B166">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C166">
         <v>218</v>
@@ -2321,10 +2330,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="B167">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C167">
         <v>218</v>
@@ -2332,10 +2341,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B168">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C168">
         <v>218</v>
@@ -2343,10 +2352,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="B169">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C169">
         <v>218</v>
@@ -2354,32 +2363,32 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B170">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C170">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B171">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C171">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B172">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C172">
         <v>216</v>
@@ -2387,21 +2396,21 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B173">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C173">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="B174">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C174">
         <v>215</v>
@@ -2412,117 +2421,117 @@
         <v>223</v>
       </c>
       <c r="B175">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C175">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B176">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="C176">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="B177">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C177">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B178">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C178">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B179">
         <v>231</v>
       </c>
       <c r="C179">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B180">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C180">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B181">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C181">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B182">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C182">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B183">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C183">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B184">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="C184">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B185">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C185">
         <v>210</v>
@@ -2530,43 +2539,43 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B186">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="C186">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B187">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C187">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B188">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C188">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B189">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C189">
         <v>211</v>
@@ -2574,10 +2583,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B190">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C190">
         <v>211</v>
@@ -2585,142 +2594,142 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B191">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C191">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B192">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C192">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B193">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C193">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B194">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C194">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B195">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C195">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B196">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C196">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B197">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C197">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B198">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C198">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B199">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C199">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
+        <v>228</v>
+      </c>
+      <c r="B200">
         <v>231</v>
       </c>
-      <c r="B200">
-        <v>223</v>
-      </c>
       <c r="C200">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B201">
         <v>223</v>
       </c>
       <c r="C201">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B202">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C202">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B203">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C203">
         <v>206</v>
@@ -2728,13 +2737,13 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B204">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C204">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -2742,29 +2751,29 @@
         <v>213</v>
       </c>
       <c r="B205">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C205">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B206">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C206">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B207">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C207">
         <v>206</v>
@@ -2772,10 +2781,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B208">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C208">
         <v>206</v>
@@ -2783,18 +2792,18 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B209">
         <v>231</v>
       </c>
       <c r="C209">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>231</v>
@@ -2805,10 +2814,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B211">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C211">
         <v>205</v>
@@ -2816,35 +2825,35 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B212">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C212">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B213">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C213">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B214">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C214">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -2855,15 +2864,15 @@
         <v>222</v>
       </c>
       <c r="C215">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B216">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C216">
         <v>203</v>
@@ -2871,21 +2880,21 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B217">
         <v>224</v>
       </c>
       <c r="C217">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B218">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C218">
         <v>204</v>
@@ -2896,62 +2905,62 @@
         <v>208</v>
       </c>
       <c r="B219">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C219">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B220">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C220">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B221">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C221">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B222">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C222">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B223">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C223">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B224">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C224">
         <v>213</v>
@@ -2959,7 +2968,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B225">
         <v>220</v>
@@ -2970,32 +2979,32 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B226">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C226">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B227">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C227">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B228">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C228">
         <v>203</v>
@@ -3009,136 +3018,136 @@
         <v>216</v>
       </c>
       <c r="C229">
-        <v>238</v>
+        <v>203</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B230">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C230">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B231">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C231">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B232">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C232">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B233">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C233">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B234">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C234">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B235">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C235">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B236">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C236">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B237">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C237">
-        <v>190</v>
+        <v>253</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B238">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C238">
-        <v>255</v>
+        <v>190</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B239">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C239">
-        <v>191</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B240">
         <v>209</v>
       </c>
       <c r="C240">
-        <v>255</v>
+        <v>191</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B241">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C241">
         <v>255</v>
@@ -3146,65 +3155,65 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B242">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C242">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B243">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C243">
-        <v>191</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B244">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C244">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B245">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C245">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B246">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C246">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B247">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C247">
         <v>231</v>
@@ -3212,68 +3221,68 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B248">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C248">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B249">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C249">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B250">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C250">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B251">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C251">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B252">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C252">
-        <v>181</v>
+        <v>237</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B253">
         <v>197</v>
       </c>
       <c r="C253">
-        <v>253</v>
+        <v>181</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3281,65 +3290,65 @@
         <v>177</v>
       </c>
       <c r="B254">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C254">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B255">
         <v>198</v>
       </c>
       <c r="C255">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B256">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C256">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B257">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C257">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B258">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C258">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B259">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C259">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3347,40 +3356,40 @@
         <v>163</v>
       </c>
       <c r="B260">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C260">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B261">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C261">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B262">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C262">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B263">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C263">
         <v>239</v>
@@ -3388,13 +3397,13 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B264">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C264">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3402,21 +3411,21 @@
         <v>160</v>
       </c>
       <c r="B265">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C265">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B266">
         <v>191</v>
       </c>
       <c r="C266">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3424,10 +3433,10 @@
         <v>159</v>
       </c>
       <c r="B267">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C267">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3435,32 +3444,32 @@
         <v>159</v>
       </c>
       <c r="B268">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C268">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B269">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C269">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B270">
         <v>185</v>
       </c>
       <c r="C270">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3468,10 +3477,10 @@
         <v>157</v>
       </c>
       <c r="B271">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C271">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3479,32 +3488,32 @@
         <v>157</v>
       </c>
       <c r="B272">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C272">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B273">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C273">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B274">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C274">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3512,51 +3521,51 @@
         <v>153</v>
       </c>
       <c r="B275">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C275">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B276">
         <v>178</v>
       </c>
       <c r="C276">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B277">
         <v>178</v>
       </c>
       <c r="C277">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B278">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C278">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B279">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C279">
         <v>227</v>
@@ -3564,10 +3573,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B280">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C280">
         <v>227</v>
@@ -3575,29 +3584,29 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B281">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C281">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B282">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C282">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B283">
         <v>175</v>
@@ -3608,21 +3617,21 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B284">
         <v>175</v>
       </c>
       <c r="C284">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B285">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C285">
         <v>227</v>
@@ -3630,10 +3639,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B286">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C286">
         <v>227</v>
@@ -3641,21 +3650,21 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B287">
         <v>173</v>
       </c>
       <c r="C287">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
+        <v>163</v>
+      </c>
+      <c r="B288">
         <v>173</v>
-      </c>
-      <c r="B288">
-        <v>174</v>
       </c>
       <c r="C288">
         <v>226</v>
@@ -3663,10 +3672,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="B289">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C289">
         <v>226</v>
@@ -3674,10 +3683,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B290">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C290">
         <v>226</v>
@@ -3685,10 +3694,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B291">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C291">
         <v>226</v>
@@ -3696,13 +3705,13 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B292">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C292">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -3710,7 +3719,7 @@
         <v>220</v>
       </c>
       <c r="B293">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C293">
         <v>225</v>
@@ -3718,32 +3727,32 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B294">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C294">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="B295">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C295">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B296">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C296">
         <v>227</v>
@@ -3751,32 +3760,32 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B297">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C297">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B298">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C298">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="B299">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C299">
         <v>229</v>
@@ -3784,21 +3793,21 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B300">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C300">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B301">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="C301">
         <v>227</v>
@@ -3806,21 +3815,21 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
+        <v>222</v>
+      </c>
+      <c r="B302">
+        <v>218</v>
+      </c>
+      <c r="C302">
         <v>227</v>
-      </c>
-      <c r="B302">
-        <v>255</v>
-      </c>
-      <c r="C302">
-        <v>226</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B303">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C303">
         <v>226</v>
@@ -3828,10 +3837,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B304">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C304">
         <v>226</v>
@@ -3839,10 +3848,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B305">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C305">
         <v>226</v>
@@ -3850,13 +3859,13 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B306">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C306">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -3864,7 +3873,7 @@
         <v>223</v>
       </c>
       <c r="B307">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="C307">
         <v>227</v>
@@ -3872,51 +3881,51 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B308">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C308">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B309">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C309">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B310">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C310">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B311">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C311">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B312">
         <v>222</v>
@@ -3927,7 +3936,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B313">
         <v>222</v>
@@ -3941,40 +3950,40 @@
         <v>225</v>
       </c>
       <c r="B314">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C314">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B315">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C315">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B316">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C316">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B317">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C317">
         <v>229</v>
@@ -3982,10 +3991,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B318">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C318">
         <v>229</v>
@@ -3993,7 +4002,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B319">
         <v>255</v>
@@ -4004,21 +4013,21 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B320">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="C320">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B321">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C321">
         <v>230</v>
@@ -4026,10 +4035,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B322">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C322">
         <v>230</v>
@@ -4040,18 +4049,18 @@
         <v>214</v>
       </c>
       <c r="B323">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C323">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B324">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C324">
         <v>231</v>
@@ -4059,10 +4068,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B325">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C325">
         <v>231</v>
@@ -4070,10 +4079,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B326">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C326">
         <v>231</v>
@@ -4081,10 +4090,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B327">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C327">
         <v>231</v>
@@ -4092,10 +4101,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B328">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C328">
         <v>231</v>
@@ -4103,21 +4112,21 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B329">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C329">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B330">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C330">
         <v>230</v>
@@ -4125,7 +4134,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B331">
         <v>230</v>
@@ -4136,21 +4145,21 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B332">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C332">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B333">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C333">
         <v>229</v>
@@ -4158,7 +4167,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B334">
         <v>224</v>
@@ -4169,7 +4178,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B335">
         <v>224</v>
@@ -4180,10 +4189,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B336">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C336">
         <v>229</v>
@@ -4191,10 +4200,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B337">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C337">
         <v>229</v>
@@ -4205,18 +4214,18 @@
         <v>167</v>
       </c>
       <c r="B338">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C338">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B339">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C339">
         <v>231</v>
@@ -4224,21 +4233,21 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B340">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C340">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B341">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C341">
         <v>230</v>
@@ -4246,21 +4255,21 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B342">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C342">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B343">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C343">
         <v>231</v>
@@ -4268,24 +4277,24 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B344">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C344">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B345">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C345">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,37 +4302,37 @@
         <v>161</v>
       </c>
       <c r="B346">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C346">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B347">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C347">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B348">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C348">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="B349">
         <v>188</v>
@@ -4334,24 +4343,24 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B350">
         <v>188</v>
       </c>
       <c r="C350">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B351">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C351">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4367,10 +4376,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B353">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C353">
         <v>225</v>
@@ -4378,13 +4387,13 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B354">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C354">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4392,7 +4401,7 @@
         <v>217</v>
       </c>
       <c r="B355">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C355">
         <v>224</v>
@@ -4400,10 +4409,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B356">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C356">
         <v>224</v>
@@ -4411,10 +4420,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B357">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C357">
         <v>224</v>
@@ -4422,21 +4431,21 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B358">
         <v>182</v>
       </c>
       <c r="C358">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B359">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C359">
         <v>225</v>
@@ -4444,21 +4453,21 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B360">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C360">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B361">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C361">
         <v>226</v>
@@ -4466,43 +4475,43 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B362">
+        <v>228</v>
+      </c>
+      <c r="C362">
         <v>226</v>
-      </c>
-      <c r="C362">
-        <v>227</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B363">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C363">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B364">
         <v>225</v>
       </c>
       <c r="C364">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B365">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C365">
         <v>227</v>
@@ -4510,10 +4519,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B366">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C366">
         <v>227</v>
@@ -4521,10 +4530,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B367">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C367">
         <v>227</v>
@@ -4532,10 +4541,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B368">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C368">
         <v>227</v>
@@ -4543,18 +4552,18 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B369">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C369">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B370">
         <v>218</v>
@@ -4565,10 +4574,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B371">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C371">
         <v>228</v>
@@ -4576,10 +4585,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B372">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C372">
         <v>228</v>
@@ -4587,10 +4596,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B373">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C373">
         <v>228</v>
@@ -4598,10 +4607,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B374">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C374">
         <v>228</v>
@@ -4609,10 +4618,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B375">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C375">
         <v>228</v>
@@ -4620,10 +4629,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B376">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C376">
         <v>228</v>
@@ -4631,10 +4640,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B377">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C377">
         <v>228</v>
@@ -4642,10 +4651,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B378">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C378">
         <v>228</v>
@@ -4653,10 +4662,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B379">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C379">
         <v>228</v>
@@ -4664,10 +4673,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B380">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C380">
         <v>228</v>
@@ -4675,10 +4684,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B381">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C381">
         <v>228</v>
@@ -4686,21 +4695,21 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>621</v>
+        <v>197</v>
       </c>
       <c r="B382">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C382">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>196</v>
+        <v>621</v>
       </c>
       <c r="B383">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C383">
         <v>229</v>
@@ -4708,21 +4717,21 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B384">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C384">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B385">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C385">
         <v>230</v>
@@ -4730,7 +4739,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B386">
         <v>211</v>
@@ -4741,10 +4750,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B387">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C387">
         <v>230</v>
@@ -4752,40 +4761,40 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B388">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C388">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B389">
         <v>209</v>
       </c>
       <c r="C389">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B390">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C390">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B391">
         <v>210</v>
@@ -4796,10 +4805,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B392">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C392">
         <v>224</v>
@@ -4807,21 +4816,21 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B393">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C393">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B394">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C394">
         <v>223</v>
@@ -4829,10 +4838,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B395">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C395">
         <v>223</v>
@@ -4840,21 +4849,21 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B396">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C396">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B397">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C397">
         <v>222</v>
@@ -4862,10 +4871,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B398">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C398">
         <v>222</v>
@@ -4873,10 +4882,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B399">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C399">
         <v>222</v>
@@ -4884,21 +4893,21 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B400">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C400">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B401">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C401">
         <v>221</v>
@@ -4909,7 +4918,7 @@
         <v>152</v>
       </c>
       <c r="B402">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C402">
         <v>221</v>
@@ -4920,7 +4929,7 @@
         <v>152</v>
       </c>
       <c r="B403">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C403">
         <v>221</v>
@@ -4928,21 +4937,21 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B404">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C404">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B405">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C405">
         <v>220</v>
@@ -4950,32 +4959,32 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B406">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C406">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B407">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C407">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B408">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C408">
         <v>220</v>
@@ -4983,32 +4992,32 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="B409">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C409">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="B410">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C410">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B411">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C411">
         <v>220</v>
@@ -5016,21 +5025,21 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B412">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C412">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B413">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C413">
         <v>218</v>
@@ -5038,21 +5047,21 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B414">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C414">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B415">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C415">
         <v>219</v>
@@ -5060,10 +5069,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B416">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C416">
         <v>219</v>
@@ -5071,10 +5080,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B417">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C417">
         <v>219</v>
@@ -5082,21 +5091,21 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B418">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C418">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B419">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C419">
         <v>221</v>
@@ -5104,54 +5113,54 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B420">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C420">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B421">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C421">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B422">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="C422">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B423">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C423">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="B424">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C424">
         <v>221</v>
@@ -5159,54 +5168,54 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="B425">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C425">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B426">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="C426">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="B427">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C427">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B428">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C428">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B429">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C429">
         <v>217</v>
@@ -5214,65 +5223,65 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B430">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C430">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B431">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C431">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B432">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C432">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B433">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C433">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B434">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C434">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B435">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C435">
         <v>212</v>
@@ -5280,21 +5289,21 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B436">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C436">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B437">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C437">
         <v>211</v>
@@ -5302,43 +5311,43 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B438">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C438">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B439">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C439">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B440">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C440">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B441">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C441">
         <v>208</v>
@@ -5346,21 +5355,21 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B442">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C442">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B443">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C443">
         <v>207</v>
@@ -5368,10 +5377,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B444">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C444">
         <v>207</v>
@@ -5379,10 +5388,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B445">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C445">
         <v>207</v>
@@ -5390,32 +5399,32 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B446">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C446">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B447">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C447">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B448">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C448">
         <v>209</v>
@@ -5423,32 +5432,32 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449">
+        <v>213</v>
+      </c>
+      <c r="B449">
+        <v>226</v>
+      </c>
+      <c r="C449">
         <v>209</v>
-      </c>
-      <c r="B449">
-        <v>231</v>
-      </c>
-      <c r="C449">
-        <v>210</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B450">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C450">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B451">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C451">
         <v>208</v>
@@ -5456,21 +5465,21 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B452">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C452">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B453">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C453">
         <v>209</v>
@@ -5478,10 +5487,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B454">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C454">
         <v>209</v>
@@ -5489,43 +5498,43 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B455">
         <v>224</v>
       </c>
       <c r="C455">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B456">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C456">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B457">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C457">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B458">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C458">
         <v>217</v>
@@ -5533,21 +5542,21 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B459">
-        <v>521</v>
+        <v>225</v>
       </c>
       <c r="C459">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B460">
-        <v>220</v>
+        <v>521</v>
       </c>
       <c r="C460">
         <v>216</v>
@@ -5558,18 +5567,18 @@
         <v>159</v>
       </c>
       <c r="B461">
+        <v>220</v>
+      </c>
+      <c r="C461">
         <v>216</v>
-      </c>
-      <c r="C461">
-        <v>215</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B462">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C462">
         <v>215</v>
@@ -5577,10 +5586,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B463">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C463">
         <v>215</v>
@@ -5588,10 +5597,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B464">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C464">
         <v>215</v>
@@ -5599,10 +5608,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="B465">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C465">
         <v>215</v>
@@ -5610,21 +5619,21 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B466">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C466">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B467">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C467">
         <v>214</v>
@@ -5632,21 +5641,21 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B468">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C468">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B469">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C469">
         <v>215</v>
@@ -5654,10 +5663,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="B470">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C470">
         <v>215</v>
@@ -5665,10 +5674,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B471">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C471">
         <v>215</v>
@@ -5676,10 +5685,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B472">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C472">
         <v>215</v>
@@ -5687,7 +5696,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B473">
         <v>182</v>
@@ -5698,10 +5707,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B474">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C474">
         <v>215</v>
@@ -5709,10 +5718,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B475">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C475">
         <v>215</v>
@@ -5720,32 +5729,32 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B476">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C476">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B477">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="C477">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B478">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C478">
         <v>215</v>
@@ -5753,43 +5762,43 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B479">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C479">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B480">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C480">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B481">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="C481">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B482">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C482">
         <v>212</v>
@@ -5797,10 +5806,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B483">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="C483">
         <v>212</v>
@@ -5808,109 +5817,109 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B484">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="C484">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B485">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C485">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B486">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C486">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B487">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C487">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B488">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C488">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B489">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C489">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B490">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C490">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B491">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C491">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B492">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C492">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B493">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C493">
         <v>204</v>
@@ -5918,24 +5927,24 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B494">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C494">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B495">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C495">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -5943,84 +5952,84 @@
         <v>212</v>
       </c>
       <c r="B496">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C496">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B497">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C497">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B498">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C498">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B499">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C499">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B500">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C500">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B501">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C501">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B502">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C502">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B503">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C503">
         <v>195</v>
@@ -6028,21 +6037,21 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B504">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C504">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B505">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C505">
         <v>198</v>
@@ -6050,65 +6059,65 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B506">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C506">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B507">
         <v>222</v>
       </c>
       <c r="C507">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B508">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C508">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B509">
         <v>227</v>
       </c>
       <c r="C509">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B510">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C510">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B511">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C511">
         <v>197</v>
@@ -6116,43 +6125,43 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512">
+        <v>199</v>
+      </c>
+      <c r="B512">
+        <v>227</v>
+      </c>
+      <c r="C512">
         <v>197</v>
-      </c>
-      <c r="B512">
-        <v>226</v>
-      </c>
-      <c r="C512">
-        <v>199</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B513">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C513">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B514">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C514">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B515">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C515">
         <v>197</v>
@@ -6160,43 +6169,43 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B516">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C516">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B517">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C517">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B518">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C518">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B519">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C519">
         <v>197</v>
@@ -6204,10 +6213,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B520">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C520">
         <v>197</v>
@@ -6215,21 +6224,21 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B521">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C521">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B522">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C522">
         <v>195</v>
@@ -6237,21 +6246,21 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B523">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C523">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B524">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C524">
         <v>196</v>
@@ -6262,7 +6271,7 @@
         <v>165</v>
       </c>
       <c r="B525">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C525">
         <v>196</v>
@@ -6270,10 +6279,10 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B526">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C526">
         <v>196</v>
@@ -6281,109 +6290,109 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B527">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C527">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B528">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C528">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B529">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C529">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B530">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C530">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B531">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C531">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B532">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C532">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B533">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C533">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B534">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C534">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B535">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C535">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B536">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C536">
         <v>197</v>
@@ -6397,7 +6406,7 @@
         <v>190</v>
       </c>
       <c r="C537">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -6405,54 +6414,54 @@
         <v>158</v>
       </c>
       <c r="B538">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C538">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B539">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C539">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B540">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C540">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B541">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C541">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B542">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C542">
-        <v>255</v>
+        <v>220</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -6460,98 +6469,98 @@
         <v>149</v>
       </c>
       <c r="B543">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C543">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B544">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C544">
-        <v>182</v>
+        <v>252</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B545">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C545">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B546">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C546">
-        <v>255</v>
+        <v>181</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B547">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C547">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="B548">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C548">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="B549">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C549">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B550">
         <v>179</v>
       </c>
       <c r="C550">
-        <v>191</v>
+        <v>255</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B551">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C551">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -6559,95 +6568,95 @@
         <v>251</v>
       </c>
       <c r="B552">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C552">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B553">
         <v>177</v>
       </c>
       <c r="C553">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B554">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C554">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="B555">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C555">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="B556">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C556">
-        <v>185</v>
+        <v>208</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B557">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C557">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B558">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C558">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B559">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C559">
-        <v>255</v>
+        <v>223</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B560">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="C560">
         <v>255</v>
@@ -6666,18 +6675,18 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B562">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C562">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B563">
         <v>251</v>
@@ -6691,54 +6700,54 @@
         <v>238</v>
       </c>
       <c r="B564">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C564">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="B565">
         <v>252</v>
       </c>
       <c r="C565">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B566">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="C566">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B567">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C567">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B568">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C568">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -6746,54 +6755,54 @@
         <v>231</v>
       </c>
       <c r="B569">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C569">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B570">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C570">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B571">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="C571">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B572">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C572">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B573">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C573">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -6801,18 +6810,18 @@
         <v>233</v>
       </c>
       <c r="B574">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C574">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B575">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C575">
         <v>233</v>
@@ -6820,32 +6829,32 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B576">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="C576">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B577">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C577">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B578">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C578">
         <v>226</v>
@@ -6853,54 +6862,54 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B579">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C579">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B580">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C580">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B581">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C581">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B582">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C582">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B583">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C583">
         <v>226</v>
@@ -6908,13 +6917,13 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B584">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C584">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -6922,10 +6931,10 @@
         <v>214</v>
       </c>
       <c r="B585">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C585">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -6933,18 +6942,18 @@
         <v>214</v>
       </c>
       <c r="B586">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C586">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B587">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C587">
         <v>227</v>
@@ -6952,10 +6961,10 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B588">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C588">
         <v>227</v>
@@ -6963,13 +6972,13 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B589">
+        <v>228</v>
+      </c>
+      <c r="C589">
         <v>227</v>
-      </c>
-      <c r="C589">
-        <v>228</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -6977,26 +6986,26 @@
         <v>218</v>
       </c>
       <c r="B590">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C590">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B591">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C591">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B592">
         <v>225</v>
@@ -7007,10 +7016,10 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B593">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C593">
         <v>227</v>
@@ -7018,10 +7027,10 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B594">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C594">
         <v>227</v>
@@ -7029,10 +7038,10 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B595">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C595">
         <v>227</v>
@@ -7040,7 +7049,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B596">
         <v>222</v>
@@ -7054,18 +7063,18 @@
         <v>207</v>
       </c>
       <c r="B597">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C597">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B598">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C598">
         <v>225</v>
@@ -7073,10 +7082,10 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B599">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C599">
         <v>225</v>
@@ -7084,51 +7093,51 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B600">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C600">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B601">
         <v>226</v>
       </c>
       <c r="C601">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B602">
+        <v>226</v>
+      </c>
+      <c r="C602">
         <v>227</v>
-      </c>
-      <c r="C602">
-        <v>228</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B603">
+        <v>227</v>
+      </c>
+      <c r="C603">
         <v>228</v>
-      </c>
-      <c r="C603">
-        <v>226</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B604">
         <v>228</v>
@@ -7139,35 +7148,35 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B605">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C605">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B606">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="C606">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="B607">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C607">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -7183,10 +7192,10 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B609">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C609">
         <v>227</v>
@@ -7194,18 +7203,18 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B610">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C610">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B611">
         <v>214</v>
@@ -7219,18 +7228,18 @@
         <v>162</v>
       </c>
       <c r="B612">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C612">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B613">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C613">
         <v>227</v>
@@ -7238,10 +7247,10 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B614">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C614">
         <v>227</v>
@@ -7249,21 +7258,21 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B615">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C615">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B616">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C616">
         <v>228</v>
@@ -7274,51 +7283,51 @@
         <v>156</v>
       </c>
       <c r="B617">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C617">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B618">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="C618">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B619">
         <v>191</v>
       </c>
       <c r="C619">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B620">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C620">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B621">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C621">
         <v>230</v>
@@ -7326,32 +7335,32 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B622">
         <v>188</v>
       </c>
       <c r="C622">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B623">
         <v>188</v>
       </c>
       <c r="C623">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B624">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C624">
         <v>230</v>
@@ -7359,10 +7368,10 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B625">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C625">
         <v>230</v>
@@ -7370,10 +7379,10 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="B626">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C626">
         <v>230</v>
@@ -7381,13 +7390,13 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B627">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C627">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -7403,7 +7412,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B629">
         <v>182</v>
@@ -7414,21 +7423,21 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B630">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C630">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="B631">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C631">
         <v>232</v>
@@ -7436,7 +7445,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B632">
         <v>175</v>
@@ -7447,10 +7456,10 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B633">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C633">
         <v>232</v>
@@ -7458,7 +7467,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B634">
         <v>174</v>
@@ -7469,10 +7478,10 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B635">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C635">
         <v>232</v>
@@ -7480,21 +7489,21 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B636">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C636">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B637">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C637">
         <v>231</v>
@@ -7502,10 +7511,10 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B638">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="C638">
         <v>231</v>
@@ -7513,21 +7522,21 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B639">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C639">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="B640">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C640">
         <v>230</v>
@@ -7535,10 +7544,10 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B641">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C641">
         <v>230</v>
@@ -7546,10 +7555,10 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="B642">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C642">
         <v>230</v>
@@ -7557,131 +7566,131 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B643">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C643">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B644">
+        <v>222</v>
+      </c>
+      <c r="C644">
         <v>231</v>
-      </c>
-      <c r="C644">
-        <v>224</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B645">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C645">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B646">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C646">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B647">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C647">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B648">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C648">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B649">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C649">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B650">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C650">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B651">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C651">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B652">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C652">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B653">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C653">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B654">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="C654">
         <v>243</v>
@@ -7692,160 +7701,160 @@
         <v>216</v>
       </c>
       <c r="B655">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C655">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B656">
         <v>239</v>
       </c>
       <c r="C656">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B657">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C657">
-        <v>254</v>
+        <v>211</v>
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658">
+        <v>228</v>
+      </c>
+      <c r="B658">
+        <v>240</v>
+      </c>
+      <c r="C658">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A659">
         <v>227</v>
       </c>
-      <c r="B658">
+      <c r="B659">
         <v>239</v>
-      </c>
-      <c r="C658">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="659" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A659">
-        <v>208</v>
-      </c>
-      <c r="B659">
-        <v>233</v>
       </c>
       <c r="C659">
         <v>253</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B660">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C660">
-        <v>243</v>
-      </c>
-      <c r="H660" s="3"/>
-      <c r="I660" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J660" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K660" s="3" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B661">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C661">
-        <v>223</v>
-      </c>
-      <c r="H661" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H661" s="3"/>
+      <c r="I661" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I661" s="1">
-        <f>VARP(Hoja1!$A$1:$A$680)</f>
-        <v>1104.8173334775086</v>
-      </c>
-      <c r="J661" s="1"/>
-      <c r="K661" s="1"/>
+      <c r="J661" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K661" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662">
+        <v>205</v>
+      </c>
+      <c r="B662">
+        <v>226</v>
+      </c>
+      <c r="C662">
+        <v>223</v>
+      </c>
+      <c r="H662" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I662" s="1">
+        <f>VARP(Hoja1!$A$2:$A$681)</f>
+        <v>1104.8173334775086</v>
+      </c>
+      <c r="J662" s="1"/>
+      <c r="K662" s="1"/>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A663">
         <v>193</v>
       </c>
-      <c r="B662">
+      <c r="B663">
         <v>227</v>
       </c>
-      <c r="C662">
+      <c r="C663">
         <v>232</v>
       </c>
-      <c r="H662" s="1" t="s">
+      <c r="H663" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I662" s="1">
+      <c r="I663" s="1">
         <v>206.97941176470584</v>
       </c>
-      <c r="J662" s="1">
-        <f>VARP(Hoja1!$B$1:$B$680)</f>
+      <c r="J663" s="1">
+        <f>VARP(Hoja1!$B$2:$B$681)</f>
         <v>5852.1017647058825</v>
       </c>
-      <c r="K662" s="1"/>
-    </row>
-    <row r="663" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A663">
+      <c r="K663" s="1"/>
+    </row>
+    <row r="664" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A664">
         <v>195</v>
       </c>
-      <c r="B663">
+      <c r="B664">
         <v>226</v>
       </c>
-      <c r="C663">
+      <c r="C664">
         <v>233</v>
       </c>
-      <c r="H663" s="2" t="s">
+      <c r="H664" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I663" s="2">
+      <c r="I664" s="2">
         <v>2.5219723183391056</v>
       </c>
-      <c r="J663" s="2">
+      <c r="J664" s="2">
         <v>-4.7544117647058801</v>
       </c>
-      <c r="K663" s="2">
-        <f>VARP(Hoja1!$C$1:$C$680)</f>
+      <c r="K664" s="2">
+        <f>VARP(Hoja1!$C$2:$C$681)</f>
         <v>161.67543252595158</v>
-      </c>
-    </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664">
-        <v>172</v>
-      </c>
-      <c r="B664">
-        <v>225</v>
-      </c>
-      <c r="C664">
-        <v>232</v>
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B665">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C665">
         <v>232</v>
@@ -7859,98 +7868,98 @@
         <v>227</v>
       </c>
       <c r="C666">
-        <v>221</v>
-      </c>
-      <c r="I666">
-        <v>1.0014727539999999</v>
+        <v>232</v>
       </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B667">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C667">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="I667">
+        <v>1.0014727539999999</v>
       </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B668">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C668">
-        <v>227</v>
-      </c>
-      <c r="I668" s="4">
-        <f>(I661*I666)</f>
-        <v>1106.4444576246567</v>
-      </c>
-      <c r="J668" s="4">
-        <v>207.28424200000001</v>
-      </c>
-      <c r="K668" s="4">
-        <v>2.52</v>
+        <v>222</v>
       </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B669">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C669">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I669" s="4">
-        <f>(I662*I666)</f>
-        <v>207.28424152129995</v>
+        <f>(I662*I667)</f>
+        <v>1106.4444576246567</v>
       </c>
       <c r="J669" s="4">
-        <f>J662*I666</f>
-        <v>5860.7204709882599</v>
+        <v>207.28424200000001</v>
       </c>
       <c r="K669" s="4">
-        <v>-4.76</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B670">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C670">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I670" s="4">
-        <f>(I663*I666)</f>
-        <v>2.5256865631588288</v>
+        <f>(I663*I667)</f>
+        <v>207.28424152129995</v>
       </c>
       <c r="J670" s="4">
-        <f>J663*I666</f>
-        <v>-4.7614138436499971</v>
+        <f>J663*I667</f>
+        <v>5860.7204709882599</v>
       </c>
       <c r="K670" s="4">
-        <f>K663*I666</f>
-        <v>161.91354066590588</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B671">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C671">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="I671" s="4">
+        <f>(I664*I667)</f>
+        <v>2.5256865631588288</v>
+      </c>
+      <c r="J671" s="4">
+        <f>J664*I667</f>
+        <v>-4.7614138436499971</v>
+      </c>
+      <c r="K671" s="4">
+        <f>K664*I667</f>
+        <v>161.91354066590588</v>
       </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
@@ -7958,82 +7967,73 @@
         <v>160</v>
       </c>
       <c r="B672">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C672">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="673" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B673">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C673">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="674" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B674">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C674">
-        <v>220</v>
-      </c>
-      <c r="G674" cm="1">
-        <f t="array" ref="G674:I676">MINVERSE(I668:K670)</f>
-        <v>9.0986146650157617E-4</v>
-      </c>
-      <c r="H674">
-        <v>-3.2192608021783623E-5</v>
-      </c>
-      <c r="I674">
-        <v>-1.5107369647452436E-5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="675" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B675">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C675">
-        <v>219</v>
-      </c>
-      <c r="G675">
-        <v>-3.2192630485423695E-5</v>
+        <v>220</v>
+      </c>
+      <c r="G675" cm="1">
+        <f t="array" ref="G675:I677">MINVERSE(I669:K671)</f>
+        <v>9.0986146650157617E-4</v>
       </c>
       <c r="H675">
-        <v>1.7177059710643484E-4</v>
+        <v>-3.2192608021783623E-5</v>
       </c>
       <c r="I675">
-        <v>5.5508234045995884E-6</v>
+        <v>-1.5107369647452436E-5</v>
       </c>
     </row>
     <row r="676" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B676">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="C676">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="G676">
-        <v>-1.5139606648426499E-5</v>
+        <v>-3.2192630485423695E-5</v>
       </c>
       <c r="H676">
-        <v>5.5534536074634992E-6</v>
+        <v>1.7177059710643484E-4</v>
       </c>
       <c r="I676">
-        <v>6.1765346007192166E-3</v>
+        <v>5.5508234045995884E-6</v>
       </c>
     </row>
     <row r="677" spans="1:16" x14ac:dyDescent="0.25">
@@ -8041,31 +8041,30 @@
         <v>154</v>
       </c>
       <c r="B677">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C677">
-        <v>211</v>
+        <v>255</v>
+      </c>
+      <c r="G677">
+        <v>-1.5139606648426499E-5</v>
+      </c>
+      <c r="H677">
+        <v>5.5534536074634992E-6</v>
+      </c>
+      <c r="I677">
+        <v>6.1765346007192166E-3</v>
       </c>
     </row>
     <row r="678" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B678">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C678">
-        <v>246</v>
-      </c>
-      <c r="N678" cm="1">
-        <f t="array" ref="N678:P678">MMULT(G681:I681,_xlfn.ANCHORARRAY(G674))</f>
-        <v>-9.467755776111024E-2</v>
-      </c>
-      <c r="O678">
-        <v>1.5168178145814461E-3</v>
-      </c>
-      <c r="P678">
-        <v>0.92293582663788976</v>
+        <v>211</v>
       </c>
     </row>
     <row r="679" spans="1:16" x14ac:dyDescent="0.25">
@@ -8073,88 +8072,113 @@
         <v>155</v>
       </c>
       <c r="B679">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C679">
-        <v>247</v>
-      </c>
-      <c r="K679" s="5" t="s">
-        <v>6</v>
+        <v>246</v>
+      </c>
+      <c r="N679" cm="1">
+        <f t="array" ref="N679:P679">MMULT(G682:I682,_xlfn.ANCHORARRAY(G675))</f>
+        <v>-9.467755776111024E-2</v>
+      </c>
+      <c r="O679">
+        <v>1.5168178145814461E-3</v>
+      </c>
+      <c r="P679">
+        <v>0.92293582663788976</v>
       </c>
     </row>
     <row r="680" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B680">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C680">
-        <v>242</v>
-      </c>
-      <c r="G680" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H680" s="5"/>
-      <c r="I680" s="5"/>
-      <c r="K680" s="5">
-        <v>-102.11</v>
+        <v>247</v>
+      </c>
+      <c r="K680" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="681" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A681">
-        <f>SUM(A1:A680)</f>
+        <v>156</v>
+      </c>
+      <c r="B681">
+        <v>188</v>
+      </c>
+      <c r="C681">
+        <v>242</v>
+      </c>
+      <c r="G681" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H681" s="5"/>
+      <c r="I681" s="5"/>
+      <c r="K681" s="5">
+        <v>-102.11</v>
+      </c>
+    </row>
+    <row r="682" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G682" s="5">
+        <v>-102.11</v>
+      </c>
+      <c r="H682" s="5">
+        <v>-15.13</v>
+      </c>
+      <c r="I682" s="5">
+        <v>149.19</v>
+      </c>
+      <c r="K682" s="5">
+        <v>-15.13</v>
+      </c>
+      <c r="M682" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N682" s="6" cm="1">
+        <f t="array" ref="N682">MMULT(_xlfn.ANCHORARRAY(N679),K681:K683)</f>
+        <v>147.33737194555911</v>
+      </c>
+    </row>
+    <row r="683" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K683" s="5">
+        <v>149.19</v>
+      </c>
+    </row>
+    <row r="686" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F686">
+        <f>SUM(A2:A681)</f>
         <v>137085</v>
       </c>
-      <c r="B681">
-        <f>SUM(B1:B680)</f>
+      <c r="G686">
+        <f>SUM(B2:B681)</f>
         <v>146472</v>
       </c>
-      <c r="C681">
-        <f>SUM(C1:C680)</f>
+      <c r="H686">
+        <f>SUM(C2:C681)</f>
         <v>150720</v>
       </c>
-      <c r="D681" t="s">
+      <c r="I686" t="s">
         <v>0</v>
       </c>
-      <c r="G681" s="5">
-        <v>-102.11</v>
-      </c>
-      <c r="H681" s="5">
-        <v>-15.13</v>
-      </c>
-      <c r="I681" s="5">
-        <v>149.19</v>
-      </c>
-      <c r="K681" s="5">
-        <v>-15.13</v>
-      </c>
-      <c r="M681" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N681" s="6" cm="1">
-        <f t="array" ref="N681">MMULT(_xlfn.ANCHORARRAY(N678),K680:K682)</f>
-        <v>147.33737194555911</v>
-      </c>
-    </row>
-    <row r="682" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A682" s="4">
-        <f>AVERAGE(A1:A680)</f>
+    </row>
+    <row r="687" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F687" s="4">
+        <f>AVERAGE(A2:A681)</f>
         <v>201.59558823529412</v>
       </c>
-      <c r="B682" s="4">
-        <f>AVERAGE(B1:B680)</f>
+      <c r="G687" s="4">
+        <f>AVERAGE(B2:B681)</f>
         <v>215.4</v>
       </c>
-      <c r="C682" s="4">
-        <f>AVERAGE(C1:C680)</f>
+      <c r="H687" s="4">
+        <f>AVERAGE(C2:C681)</f>
         <v>221.64705882352942</v>
       </c>
-      <c r="D682" s="4" t="s">
+      <c r="I687" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="K682" s="5">
-        <v>149.19</v>
       </c>
     </row>
   </sheetData>

--- a/Cielo.xlsx
+++ b/Cielo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karla\OneDrive - Instituto Politecnico Nacional\Desktop\Materias\Pattern Recognition\Proyecto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonic\Documents\ESCOM\Octavo Semestre\Pattern Recognition\Pattern-Recognition-Proyecto-1-main-2\Pattern-Recognition-Proyecto-1-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA1579A-B1EF-4922-BB0F-CCF3A2E3F81F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF00988E-4E8D-4547-932B-45EA5FFE796F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1C580B64-49D4-436A-A98D-CE34145A9A0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C580B64-49D4-436A-A98D-CE34145A9A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A44583A-8E73-48DA-9C53-54A49F1CD087}">
-  <dimension ref="A1:P687"/>
+  <dimension ref="A1:P681"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
+      <selection activeCell="N686" sqref="N686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7542,7 +7542,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>254</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>238</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>223</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>239</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>233</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>235</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>233</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>228</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>224</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>223</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>221</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>220</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>218</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>217</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>216</v>
       </c>
@@ -7706,8 +7706,18 @@
       <c r="C655">
         <v>243</v>
       </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H655" s="3"/>
+      <c r="I655" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J655" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K655" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>216</v>
       </c>
@@ -7717,6 +7727,15 @@
       <c r="C656">
         <v>234</v>
       </c>
+      <c r="H656" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I656" s="1">
+        <f>VARP(Hoja1!$A$2:$A$681)</f>
+        <v>1104.8173334775086</v>
+      </c>
+      <c r="J656" s="1"/>
+      <c r="K656" s="1"/>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657">
@@ -7728,8 +7747,19 @@
       <c r="C657">
         <v>211</v>
       </c>
-    </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H657" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I657" s="1">
+        <v>206.97941176470584</v>
+      </c>
+      <c r="J657" s="1">
+        <f>VARP(Hoja1!$B$2:$B$681)</f>
+        <v>5852.1017647058825</v>
+      </c>
+      <c r="K657" s="1"/>
+    </row>
+    <row r="658" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>228</v>
       </c>
@@ -7738,6 +7768,19 @@
       </c>
       <c r="C658">
         <v>254</v>
+      </c>
+      <c r="H658" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I658" s="2">
+        <v>2.5219723183391056</v>
+      </c>
+      <c r="J658" s="2">
+        <v>-4.7544117647058801</v>
+      </c>
+      <c r="K658" s="2">
+        <f>VARP(Hoja1!$C$2:$C$681)</f>
+        <v>161.67543252595158</v>
       </c>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
@@ -7751,7 +7794,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>208</v>
       </c>
@@ -7772,15 +7815,8 @@
       <c r="C661">
         <v>243</v>
       </c>
-      <c r="H661" s="3"/>
-      <c r="I661" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J661" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K661" s="3" t="s">
-        <v>4</v>
+      <c r="I661">
+        <v>1.0014727539999999</v>
       </c>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
@@ -7793,15 +7829,6 @@
       <c r="C662">
         <v>223</v>
       </c>
-      <c r="H662" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I662" s="1">
-        <f>VARP(Hoja1!$A$2:$A$681)</f>
-        <v>1104.8173334775086</v>
-      </c>
-      <c r="J662" s="1"/>
-      <c r="K662" s="1"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663">
@@ -7813,19 +7840,18 @@
       <c r="C663">
         <v>232</v>
       </c>
-      <c r="H663" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I663" s="1">
-        <v>206.97941176470584</v>
-      </c>
-      <c r="J663" s="1">
-        <f>VARP(Hoja1!$B$2:$B$681)</f>
-        <v>5852.1017647058825</v>
-      </c>
-      <c r="K663" s="1"/>
-    </row>
-    <row r="664" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I663" s="4">
+        <f>(I656*I661)</f>
+        <v>1106.4444576246567</v>
+      </c>
+      <c r="J663" s="4">
+        <v>207.28424200000001</v>
+      </c>
+      <c r="K663" s="4">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>195</v>
       </c>
@@ -7835,18 +7861,16 @@
       <c r="C664">
         <v>233</v>
       </c>
-      <c r="H664" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I664" s="2">
-        <v>2.5219723183391056</v>
-      </c>
-      <c r="J664" s="2">
-        <v>-4.7544117647058801</v>
-      </c>
-      <c r="K664" s="2">
-        <f>VARP(Hoja1!$C$2:$C$681)</f>
-        <v>161.67543252595158</v>
+      <c r="I664" s="4">
+        <f>(I657*I661)</f>
+        <v>207.28424152129995</v>
+      </c>
+      <c r="J664" s="4">
+        <f>J657*I661</f>
+        <v>5860.7204709882599</v>
+      </c>
+      <c r="K664" s="4">
+        <v>-4.76</v>
       </c>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
@@ -7859,6 +7883,18 @@
       <c r="C665">
         <v>232</v>
       </c>
+      <c r="I665" s="4">
+        <f>(I658*I661)</f>
+        <v>2.5256865631588288</v>
+      </c>
+      <c r="J665" s="4">
+        <f>J658*I661</f>
+        <v>-4.7614138436499971</v>
+      </c>
+      <c r="K665" s="4">
+        <f>K658*I661</f>
+        <v>161.91354066590588</v>
+      </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666">
@@ -7881,9 +7917,6 @@
       <c r="C667">
         <v>221</v>
       </c>
-      <c r="I667">
-        <v>1.0014727539999999</v>
-      </c>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668">
@@ -7906,15 +7939,15 @@
       <c r="C669">
         <v>227</v>
       </c>
-      <c r="I669" s="4">
-        <f>(I662*I667)</f>
-        <v>1106.4444576246567</v>
-      </c>
-      <c r="J669" s="4">
-        <v>207.28424200000001</v>
-      </c>
-      <c r="K669" s="4">
-        <v>2.52</v>
+      <c r="G669" cm="1">
+        <f t="array" ref="G669:I671">MINVERSE(I663:K665)</f>
+        <v>9.0986146650157617E-4</v>
+      </c>
+      <c r="H669">
+        <v>-3.2192608021783623E-5</v>
+      </c>
+      <c r="I669">
+        <v>-1.5107369647452436E-5</v>
       </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
@@ -7927,16 +7960,14 @@
       <c r="C670">
         <v>228</v>
       </c>
-      <c r="I670" s="4">
-        <f>(I663*I667)</f>
-        <v>207.28424152129995</v>
-      </c>
-      <c r="J670" s="4">
-        <f>J663*I667</f>
-        <v>5860.7204709882599</v>
-      </c>
-      <c r="K670" s="4">
-        <v>-4.76</v>
+      <c r="G670">
+        <v>-3.2192630485423695E-5</v>
+      </c>
+      <c r="H670">
+        <v>1.7177059710643484E-4</v>
+      </c>
+      <c r="I670">
+        <v>5.5508234045995884E-6</v>
       </c>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
@@ -7949,17 +7980,14 @@
       <c r="C671">
         <v>229</v>
       </c>
-      <c r="I671" s="4">
-        <f>(I664*I667)</f>
-        <v>2.5256865631588288</v>
-      </c>
-      <c r="J671" s="4">
-        <f>J664*I667</f>
-        <v>-4.7614138436499971</v>
-      </c>
-      <c r="K671" s="4">
-        <f>K664*I667</f>
-        <v>161.91354066590588</v>
+      <c r="G671">
+        <v>-1.5139606648426499E-5</v>
+      </c>
+      <c r="H671">
+        <v>5.5534536074634992E-6</v>
+      </c>
+      <c r="I671">
+        <v>6.1765346007192166E-3</v>
       </c>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
@@ -7983,6 +8011,16 @@
       <c r="C673">
         <v>226</v>
       </c>
+      <c r="N673" cm="1">
+        <f t="array" ref="N673:P673">MMULT(G676:I676,_xlfn.ANCHORARRAY(G669))</f>
+        <v>-9.467755776111024E-2</v>
+      </c>
+      <c r="O673">
+        <v>1.5168178145814461E-3</v>
+      </c>
+      <c r="P673">
+        <v>0.92293582663788976</v>
+      </c>
     </row>
     <row r="674" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A674">
@@ -7994,6 +8032,9 @@
       <c r="C674">
         <v>221</v>
       </c>
+      <c r="K674" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="675" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A675">
@@ -8005,15 +8046,13 @@
       <c r="C675">
         <v>220</v>
       </c>
-      <c r="G675" cm="1">
-        <f t="array" ref="G675:I677">MINVERSE(I669:K671)</f>
-        <v>9.0986146650157617E-4</v>
-      </c>
-      <c r="H675">
-        <v>-3.2192608021783623E-5</v>
-      </c>
-      <c r="I675">
-        <v>-1.5107369647452436E-5</v>
+      <c r="G675" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H675" s="5"/>
+      <c r="I675" s="5"/>
+      <c r="K675" s="5">
+        <v>-102.11</v>
       </c>
     </row>
     <row r="676" spans="1:16" x14ac:dyDescent="0.25">
@@ -8026,14 +8065,24 @@
       <c r="C676">
         <v>219</v>
       </c>
-      <c r="G676">
-        <v>-3.2192630485423695E-5</v>
-      </c>
-      <c r="H676">
-        <v>1.7177059710643484E-4</v>
-      </c>
-      <c r="I676">
-        <v>5.5508234045995884E-6</v>
+      <c r="G676" s="5">
+        <v>-102.11</v>
+      </c>
+      <c r="H676" s="5">
+        <v>-15.13</v>
+      </c>
+      <c r="I676" s="5">
+        <v>149.19</v>
+      </c>
+      <c r="K676" s="5">
+        <v>-15.13</v>
+      </c>
+      <c r="M676" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N676" s="6" cm="1">
+        <f t="array" ref="N676">MMULT(_xlfn.ANCHORARRAY(N673),K675:K677)</f>
+        <v>147.33737194555911</v>
       </c>
     </row>
     <row r="677" spans="1:16" x14ac:dyDescent="0.25">
@@ -8046,14 +8095,8 @@
       <c r="C677">
         <v>255</v>
       </c>
-      <c r="G677">
-        <v>-1.5139606648426499E-5</v>
-      </c>
-      <c r="H677">
-        <v>5.5534536074634992E-6</v>
-      </c>
-      <c r="I677">
-        <v>6.1765346007192166E-3</v>
+      <c r="K677" s="5">
+        <v>149.19</v>
       </c>
     </row>
     <row r="678" spans="1:16" x14ac:dyDescent="0.25">
@@ -8077,16 +8120,6 @@
       <c r="C679">
         <v>246</v>
       </c>
-      <c r="N679" cm="1">
-        <f t="array" ref="N679:P679">MMULT(G682:I682,_xlfn.ANCHORARRAY(G675))</f>
-        <v>-9.467755776111024E-2</v>
-      </c>
-      <c r="O679">
-        <v>1.5168178145814461E-3</v>
-      </c>
-      <c r="P679">
-        <v>0.92293582663788976</v>
-      </c>
     </row>
     <row r="680" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A680">
@@ -8098,8 +8131,20 @@
       <c r="C680">
         <v>247</v>
       </c>
-      <c r="K680" s="5" t="s">
-        <v>6</v>
+      <c r="F680">
+        <f>SUM(A2:A681)</f>
+        <v>137085</v>
+      </c>
+      <c r="G680">
+        <f>SUM(B2:B681)</f>
+        <v>146472</v>
+      </c>
+      <c r="H680">
+        <f>SUM(C2:C681)</f>
+        <v>150720</v>
+      </c>
+      <c r="I680" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:16" x14ac:dyDescent="0.25">
@@ -8112,72 +8157,19 @@
       <c r="C681">
         <v>242</v>
       </c>
-      <c r="G681" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H681" s="5"/>
-      <c r="I681" s="5"/>
-      <c r="K681" s="5">
-        <v>-102.11</v>
-      </c>
-    </row>
-    <row r="682" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G682" s="5">
-        <v>-102.11</v>
-      </c>
-      <c r="H682" s="5">
-        <v>-15.13</v>
-      </c>
-      <c r="I682" s="5">
-        <v>149.19</v>
-      </c>
-      <c r="K682" s="5">
-        <v>-15.13</v>
-      </c>
-      <c r="M682" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N682" s="6" cm="1">
-        <f t="array" ref="N682">MMULT(_xlfn.ANCHORARRAY(N679),K681:K683)</f>
-        <v>147.33737194555911</v>
-      </c>
-    </row>
-    <row r="683" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K683" s="5">
-        <v>149.19</v>
-      </c>
-    </row>
-    <row r="686" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F686">
-        <f>SUM(A2:A681)</f>
-        <v>137085</v>
-      </c>
-      <c r="G686">
-        <f>SUM(B2:B681)</f>
-        <v>146472</v>
-      </c>
-      <c r="H686">
-        <f>SUM(C2:C681)</f>
-        <v>150720</v>
-      </c>
-      <c r="I686" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="687" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F687" s="4">
+      <c r="F681" s="4">
         <f>AVERAGE(A2:A681)</f>
         <v>201.59558823529412</v>
       </c>
-      <c r="G687" s="4">
+      <c r="G681" s="4">
         <f>AVERAGE(B2:B681)</f>
         <v>215.4</v>
       </c>
-      <c r="H687" s="4">
+      <c r="H681" s="4">
         <f>AVERAGE(C2:C681)</f>
         <v>221.64705882352942</v>
       </c>
-      <c r="I687" s="4" t="s">
+      <c r="I681" s="4" t="s">
         <v>1</v>
       </c>
     </row>
